--- a/data/income_statement/3digits/total/142_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/142_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>142-Manufacture of articles of fur</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>142-Manufacture of articles of fur</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>327819.59765</v>
@@ -959,7 +865,7 @@
         <v>598992.8113600001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>772579.1923100001</v>
+        <v>772579.19231</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>902269.62827</v>
@@ -968,7 +874,7 @@
         <v>837285.9229700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>413047.42126</v>
+        <v>464226.6693</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>371878.32048</v>
@@ -977,16 +883,21 @@
         <v>539570.70759</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>779314.5100799999</v>
+        <v>779314.51008</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>677052.7739299999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>677260.1708499999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>547747.0919999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>140904.69422</v>
@@ -998,16 +909,16 @@
         <v>252034.54857</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>327760.5932</v>
+        <v>327760.5932000001</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>396208.7613</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>405231.9361100001</v>
+        <v>405231.93611</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>229187.73462</v>
+        <v>251522.77984</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>193657.99981</v>
@@ -1019,13 +930,18 @@
         <v>409140.23111</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>379273.80609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>379479.75301</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>272814.098</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>184241.17423</v>
@@ -1040,13 +956,13 @@
         <v>442773.55341</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>500470.2773099999</v>
+        <v>500470.27731</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>425873.93307</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>175574.48934</v>
+        <v>203636.40292</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>168560.12481</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>291489.97918</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>267460.662</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2673.7292</v>
@@ -1082,10 +1003,10 @@
         <v>5590.589660000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6180.053790000001</v>
+        <v>6180.053789999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8285.197300000002</v>
+        <v>9067.48654</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>9660.19586</v>
@@ -1097,13 +1018,18 @@
         <v>11410.36228</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6288.98866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6290.43866</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7472.332</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1304.26656</v>
@@ -1118,16 +1044,16 @@
         <v>3554.2836</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3621.45863</v>
+        <v>3621.458630000001</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>6873.85888</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8396.130509999999</v>
+        <v>8793.46091</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6221.55617</v>
+        <v>6221.556170000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>10557.70037</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>18647.91847</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>8757.679</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>901.53677</v>
@@ -1163,7 +1094,7 @@
         <v>3739.56608</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7070.583279999999</v>
+        <v>7234.455809999999</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>5189.4034</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>16690.41114</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>5412.047</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>37.27049</v>
@@ -1205,7 +1141,7 @@
         <v>84.52186999999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>54.95088</v>
+        <v>54.95088000000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>114.09081</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1895.45642</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>730.856</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>365.4593</v>
@@ -1241,13 +1182,13 @@
         <v>2557.94164</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1241.02536</v>
+        <v>1474.48323</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>977.20189</v>
+        <v>977.2018899999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6270.01847</v>
+        <v>6270.018470000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>6772.99418</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>62.05091</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2614.776</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>326515.3310900001</v>
@@ -1274,31 +1220,36 @@
         <v>769024.90871</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>898648.1696400001</v>
+        <v>898648.16964</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>830412.06409</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>404651.29075</v>
+        <v>455433.20839</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>365656.76431</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>529013.00722</v>
+        <v>529013.0072199999</v>
       </c>
       <c r="L13" s="47" t="n">
         <v>759623.81235</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>658404.85546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>658612.25238</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>538989.4129999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>290743.02578</v>
@@ -1307,7 +1258,7 @@
         <v>353259.56873</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>511699.7909500001</v>
+        <v>511699.79095</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>695235.18109</v>
@@ -1319,7 +1270,7 @@
         <v>748622.12026</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>329781.6170499999</v>
+        <v>372579.2898499999</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>294347.40196</v>
@@ -1328,16 +1279,21 @@
         <v>434614.67642</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>579808.8505899999</v>
+        <v>579808.85059</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>530663.4504099999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>530932.78288</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>390976.865</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>264335.28239</v>
@@ -1352,13 +1308,13 @@
         <v>639468.53623</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>711862.6891400001</v>
+        <v>711862.68914</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>617999.9381</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>257617.4570700001</v>
+        <v>298043.97571</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>249712.59902</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>494694.50806</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>365201.954</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>24508.81161</v>
@@ -1397,25 +1358,30 @@
         <v>123241.27905</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>70616.28666</v>
+        <v>71757.82085999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>42171.59826999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>48088.28251999999</v>
+        <v>48088.28252</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>78562.46427</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>35325.24908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35521.85002</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>24809.936</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>578.50045</v>
@@ -1433,7 +1399,7 @@
         <v>1302.79116</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>491.9809500000001</v>
+        <v>491.98095</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>978.7011299999999</v>
@@ -1445,16 +1411,21 @@
         <v>930.7065600000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>761.1728899999999</v>
+        <v>761.1728900000001</v>
       </c>
       <c r="M17" s="48" t="n">
         <v>415.70397</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>147.067</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1320.43133</v>
@@ -1472,10 +1443,10 @@
         <v>3268.98424</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6888.922159999999</v>
+        <v>6888.92216</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>569.1721900000001</v>
+        <v>1798.79215</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1088.33718</v>
@@ -1487,13 +1458,18 @@
         <v>3815.02439</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>227.9893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>300.72083</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>817.908</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>35772.30531</v>
@@ -1514,7 +1490,7 @@
         <v>81789.94383</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>74869.6737</v>
+        <v>82853.91854000001</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>71309.36235</v>
@@ -1526,13 +1502,18 @@
         <v>179814.96176</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>127741.40505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>127679.4695</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>148012.548</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>23991.39716</v>
@@ -1550,10 +1531,10 @@
         <v>49252.24895</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>50021.64059999999</v>
+        <v>50021.6406</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>49139.35132</v>
+        <v>52821.57665</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>48555.343</v>
@@ -1562,16 +1543,21 @@
         <v>64894.82565</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>82661.64691</v>
+        <v>82843.1666</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>90793.53012000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>90924.06216999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>70936.08199999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>37.20824</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>719.75674</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>7979.1076</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8484.963270000002</v>
+        <v>8484.96327</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>12583.79694</v>
@@ -1631,7 +1622,7 @@
         <v>18556.60098</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18160.0373</v>
+        <v>19392.20463</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>20583.63185</v>
@@ -1640,16 +1631,21 @@
         <v>35874.12036</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>46617.75947</v>
+        <v>46634.59586</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>50365.74909999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>50366.78679999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>40568.048</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>15975.08132</v>
@@ -1670,7 +1666,7 @@
         <v>30088.57994</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>30978.90826</v>
+        <v>33428.96626</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>27971.71115</v>
@@ -1679,16 +1675,21 @@
         <v>29020.70529</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>36043.88744</v>
+        <v>36208.57074</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>39708.02428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>39837.51863000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>30368.034</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>11780.90815</v>
@@ -1697,7 +1698,7 @@
         <v>16115.65481</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>49092.10339999999</v>
+        <v>49092.10340000001</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>32592.76097</v>
@@ -1709,7 +1710,7 @@
         <v>31768.30323</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>25730.32238</v>
+        <v>30032.34189</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>22754.01935</v>
@@ -1718,16 +1719,21 @@
         <v>29503.50515</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>97153.31485000001</v>
+        <v>96971.79515999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>36947.87493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>36755.40733</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>77076.466</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>22907.91953</v>
@@ -1742,13 +1748,13 @@
         <v>29104.32114</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>54668.51166999999</v>
+        <v>54668.51167</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>66890.22623999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>99188.59877</v>
+        <v>103677.24681</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>48312.74664</v>
@@ -1757,16 +1763,21 @@
         <v>56910.59276000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>192085.99969</v>
+        <v>194290.65794</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>72816.78797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>72816.78797999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>100159.645</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5.64764</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1893.87411</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5889.52</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.41191</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>732.5898699999999</v>
@@ -1865,7 +1886,7 @@
         <v>1398.95442</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2449.18283</v>
+        <v>2462.0797</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>1042.57379</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>2181.00454</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>1651.58</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.15</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>14.083</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>37.947</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0.01937</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>21708.26703</v>
@@ -2018,10 +2059,10 @@
         <v>50841.79921</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>60069.19522999999</v>
+        <v>60069.19523</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>93054.66882000001</v>
+        <v>97129.6502</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>43951.21472</v>
@@ -2030,16 +2071,21 @@
         <v>48987.09253</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>185095.93193</v>
+        <v>187298.80827</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>64822.10858</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>88659.424</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>459.8337099999999</v>
+        <v>459.8337100000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>509.08812</v>
@@ -2138,7 +2194,7 @@
         <v>3285.96338</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1750.30873</v>
+        <v>2151.07852</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>2185.5426</v>
@@ -2147,16 +2203,21 @@
         <v>3206.14424</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4090.11217</v>
+        <v>4091.89408</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3906.15074</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3906.15075</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3896.321</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>21925.20048</v>
@@ -2177,7 +2238,7 @@
         <v>66047.6345</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>118673.06756</v>
+        <v>127042.59655</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>59626.71501000001</v>
@@ -2186,16 +2247,21 @@
         <v>52126.50484</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>220367.97454</v>
+        <v>222403.18898</v>
       </c>
       <c r="M36" s="47" t="n">
         <v>72326.0578</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>139641.632</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1.20989</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>158.41117</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>104.426</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>441.15955</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1013.74438</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>30462.367</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>109.70131</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>21268.99655</v>
@@ -2333,7 +2414,7 @@
         <v>65621.61456</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>107318.01935</v>
+        <v>115687.54834</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>54445.34731</v>
@@ -2342,16 +2423,21 @@
         <v>51345.01222</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>215565.76783</v>
+        <v>217600.98227</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>71048.22578000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>107981.64</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1042.062</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>104.13318</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>105.67647</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>51.137</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>5329.872490000001</v>
@@ -2489,7 +2590,7 @@
         <v>22418.6069</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>30676.16428</v>
+        <v>31221.13061</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>15534.91472</v>
@@ -2498,16 +2599,21 @@
         <v>22550.99076</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>46724.16204</v>
+        <v>47541.15624</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>30065.19583</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>41527.149</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5152.38114</v>
@@ -2528,7 +2634,7 @@
         <v>22251.08605</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>29184.35065</v>
+        <v>29729.31698</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>14861.09132</v>
@@ -2537,16 +2643,21 @@
         <v>20384.61388</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>45680.27226</v>
+        <v>46497.26645999999</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>30019.16583</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>41300.916</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>177.49135</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>46.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>226.233</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>7433.754710000001</v>
@@ -2606,25 +2722,30 @@
         <v>10192.28807</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-24430.31069</v>
+        <v>-24554.13846</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-4094.863739999999</v>
+        <v>-4094.86374</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>11736.60231</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>22147.17796</v>
+        <v>21318.10788</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7373.409270000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7180.94168</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-3932.67</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1316.586</v>
@@ -2642,28 +2763,33 @@
         <v>15285.52294</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6049.19828</v>
+        <v>6049.198280000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23133.86164</v>
+        <v>23327.08179</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7616.9973</v>
+        <v>7616.997300000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>9284.149949999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6457.12115</v>
+        <v>6461.97849</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4878.80429</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4882.09293</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6464.242</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.10916</v>
@@ -2696,13 +2822,18 @@
         <v>0.86121</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>102.43343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>105.35039</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1316.47684</v>
@@ -2723,7 +2854,7 @@
         <v>5948.68441</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>23133.86164</v>
+        <v>23327.08179</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>7616.9973</v>
@@ -2732,16 +2863,21 @@
         <v>9279.7207</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6456.25994</v>
+        <v>6461.117280000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4776.370859999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4776.74254</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6464.242</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2554.54027</v>
@@ -2762,7 +2898,7 @@
         <v>7356.70733</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6331.753580000001</v>
+        <v>6533.92204</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>17488.68715</v>
@@ -2771,16 +2907,21 @@
         <v>6726.230280000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>13317.66443</v>
+        <v>13320.38655</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6494.91167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6568.391900000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5115.107</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>717.5237099999999</v>
@@ -2804,7 +2945,7 @@
         <v>1811.63525</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>7255.44363</v>
+        <v>7255.443629999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1577.20959</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>2312.98226</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2340.846</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>21.2516</v>
@@ -2843,10 +2989,10 @@
         <v>559.08177</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>99.20866999999998</v>
+        <v>99.20867</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>794.3427800000001</v>
+        <v>794.3427799999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>3409.42477</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>890.7994299999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>657.331</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1815.76496</v>
@@ -2867,7 +3018,7 @@
         <v>2608.23916</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5473.23127</v>
+        <v>5473.231269999999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>1643.64809</v>
@@ -2879,7 +3030,7 @@
         <v>5508.28156</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3961.03656</v>
+        <v>4163.20502</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>10134.03485</v>
@@ -2888,16 +3039,21 @@
         <v>4354.67791</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7002.180350000001</v>
+        <v>7004.902470000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3291.12998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3364.61021</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2116.93</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>6195.80044</v>
@@ -2918,7 +3074,7 @@
         <v>8884.77902</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-7628.20263</v>
+        <v>-7760.978710000001</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>-13966.55359</v>
@@ -2927,16 +3083,21 @@
         <v>14294.52198</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>15286.63468</v>
+        <v>14459.69982</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5757.301890000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5494.64271</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2583.535</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2005.40736</v>
@@ -2971,17 +3132,22 @@
       <c r="M56" s="47" t="n">
         <v>2644.32853</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>1998.21</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4190.39308</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>7363.37695</v>
+        <v>7363.376949999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>9987.044159999999</v>
@@ -2996,7 +3162,7 @@
         <v>5098.480689999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-10263.10983</v>
+        <v>-10395.88591</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>-15514.54158</v>
@@ -3005,13 +3171,16 @@
         <v>12405.44798</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>11700.12524</v>
+        <v>10873.19038</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3112.97336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2850.314180000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-4581.745</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>74</v>
@@ -3050,7 +3222,7 @@
         <v>90</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>82</v>
@@ -3059,13 +3231,16 @@
         <v>81</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>